--- a/output/relationships_bundlersort.xlsx
+++ b/output/relationships_bundlersort.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,41 +642,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BENIOFF</t>
+          <t>BELL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>COLLEEN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INSLEE, JAY R.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>BENIOFF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>INSLEE, JAY R.</t>
         </is>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -712,7 +712,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D18">
@@ -732,7 +732,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D19">
@@ -752,7 +752,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D20">
@@ -772,7 +772,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RYAN, TIMOTHY J.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D21">
@@ -782,17 +782,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BERNSTEIN</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
       <c r="D22">
@@ -812,7 +812,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D23">
@@ -822,21 +822,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BESHAR</t>
+          <t>BERNSTEIN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PETER</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -852,7 +852,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D25">
@@ -862,17 +862,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLUHM</t>
+          <t>BESHAR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NEIL</t>
+          <t>PETER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D26">
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D27">
@@ -902,17 +902,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BONE</t>
+          <t>BLUHM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>NEIL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D28">
@@ -922,12 +922,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BREWSTER</t>
+          <t>BONE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -936,18 +936,18 @@
         </is>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BROAS</t>
+          <t>BREWSTER</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -972,47 +972,47 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BROWN</t>
+          <t>BROAS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KAWANNA</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHESLER</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ELLEN</t>
+          <t>KAWANNA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D33">
@@ -1022,12 +1022,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CLARK</t>
+          <t>CHESLER</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>ELLEN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1042,12 +1042,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COHEN</t>
+          <t>CLARK</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>BOB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RHONDA</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1087,52 +1087,52 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>STEVE</t>
+          <t>RHONDA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CONEY</t>
+          <t>COHEN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LES</t>
+          <t>STEVE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CONLON</t>
+          <t>CONEY</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KEVIN</t>
+          <t>LES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D39">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RYAN, TIMOTHY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D40">
@@ -1162,37 +1162,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CONNORS</t>
+          <t>CONLON</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CORZINE</t>
+          <t>CONNORS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JON</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D42">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D43">
@@ -1232,31 +1232,31 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>COSTOS</t>
+          <t>CORZINE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JON</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D46">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D47">
@@ -1302,7 +1302,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>COSTOS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D50">
@@ -1362,37 +1362,37 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JUSTIN</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DEWITT</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MEREDITH</t>
+          <t>JUSTIN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D52">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D53">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D54">
@@ -1442,17 +1442,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DRAPER</t>
+          <t>DEWITT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BECKY</t>
+          <t>MEREDITH</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D55">
@@ -1462,17 +1462,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DUNHAM</t>
+          <t>DRAPER</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>BECKY</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D56">
@@ -1482,12 +1482,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ECCLES</t>
+          <t>DUNHAM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LENI</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1502,17 +1502,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EFFRON</t>
+          <t>ECCLES</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BLAIR</t>
+          <t>LENI</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D58">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D59">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1612,31 +1612,31 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EMERSON</t>
+          <t>EFFRON</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>BLAIR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D65">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D66">
@@ -1682,21 +1682,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EYCHANER</t>
+          <t>EMERSON</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRED</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D68">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D69">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D70">
@@ -1762,17 +1762,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FALK</t>
+          <t>EYCHANER</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JOSEPH</t>
+          <t>FRED</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D71">
@@ -1782,17 +1782,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FARMER</t>
+          <t>FALK</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ELSPETH</t>
+          <t>JOSEPH</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D72">
@@ -1802,21 +1802,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FIDLER</t>
+          <t>FARMER</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GENINE</t>
+          <t>ELSPETH</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1832,11 +1832,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JOSH</t>
+          <t>GENINE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1856,27 +1856,27 @@
         </is>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>FIDLER</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>JOSH</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -1892,42 +1892,42 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FORRESTER</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CHIP</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FRANK</t>
+          <t>FORRESTER</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>CHIP</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1942,12 +1942,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FREEMAN</t>
+          <t>FRANK</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WILLIAM</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1956,18 +1956,18 @@
         </is>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FRILLMAN</t>
+          <t>FREEMAN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>WILLIAM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LOU</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1996,27 +1996,27 @@
         </is>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>FRILLMAN</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>LOU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D85">
@@ -2072,11 +2072,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2092,11 +2092,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2112,42 +2112,42 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GARRISON</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GILBERT</t>
+          <t>GARRISON</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2162,12 +2162,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GILL</t>
+          <t>GILBERT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2182,21 +2182,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>GILL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="D93">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D94">
@@ -2242,32 +2242,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GOODMAN</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BARRY</t>
+          <t>LISA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GREEN</t>
+          <t>GOODMAN</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>STEVEN</t>
+          <t>BARRY</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2276,23 +2276,23 @@
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HALPERN</t>
+          <t>GREEN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DANIEL</t>
+          <t>STEVEN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D97">
@@ -2302,32 +2302,32 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HAMAMOTO</t>
+          <t>HALPERN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PAM</t>
+          <t>DANIEL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>HAMAMOTO</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>PAM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2336,18 +2336,18 @@
         </is>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HARPOOTLIAN</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RICHARD</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2362,12 +2362,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HARRIS</t>
+          <t>HARPOOTLIAN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>RICHARD</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2376,27 +2376,27 @@
         </is>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>HARRIS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2412,11 +2412,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2432,11 +2432,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D105">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D106">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D107">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D108">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D109">
@@ -2552,47 +2552,47 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HECKLER</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HEINS</t>
+          <t>HECKLER</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D112">
@@ -2602,21 +2602,21 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HEYMAN</t>
+          <t>HEINS</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BRUCE</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>VICKI</t>
+          <t>BRUCE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2642,32 +2642,32 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HICKEY</t>
+          <t>HEYMAN</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>VICKI</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HOBSON</t>
+          <t>HICKEY</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MELLODY</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D117">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D118">
@@ -2722,21 +2722,21 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>HOBSON</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>IRWIN</t>
+          <t>MELLODY</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D120">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D121">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JOAN</t>
+          <t>IRWIN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D122">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D123">
@@ -2822,41 +2822,41 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TONY</t>
+          <t>JOAN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>KARAS</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BARRY</t>
+          <t>TONY</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2872,31 +2872,31 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>KARAS</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>BARRY</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D128">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D129">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -2972,11 +2972,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CASTRO, JULIAN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>CASTRO, JULIAN</t>
         </is>
       </c>
       <c r="D132">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>INSLEE, JAY R.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D133">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>INSLEE, JAY R.</t>
         </is>
       </c>
       <c r="D134">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D135">
@@ -3072,11 +3072,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3092,27 +3092,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KELLER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JANET</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>WARREN, ELIZABETH</t>
         </is>
       </c>
       <c r="D138">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D139">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D140">
@@ -3162,17 +3162,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>KEMPNER</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>JANET</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D141">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D142">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D143">
@@ -3222,17 +3222,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>KENNEY</t>
+          <t>KEMPNER</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D144">
@@ -3242,17 +3242,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>KIANI</t>
+          <t>KENNEY</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MASSI</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D145">
@@ -3262,32 +3262,32 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KIREKER</t>
+          <t>KIANI</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>MASSI</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KRAMER</t>
+          <t>KIREKER</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ORIN</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D148">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D149">
@@ -3342,17 +3342,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LASRY</t>
+          <t>KRAMER</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>ORIN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D150">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D151">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D152">
@@ -3402,12 +3402,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>LASSITER</t>
+          <t>LASRY</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MAI</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3422,37 +3422,37 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>LASSITER</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>JILL</t>
+          <t>MAI</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>LEVI</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CLIFF</t>
+          <t>JILL</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D155">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D156">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SUZI</t>
+          <t>CLIFF</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D157">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D158">
@@ -3522,37 +3522,37 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MADDOX</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>KERMAN</t>
+          <t>SUZI</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MAMET</t>
+          <t>MADDOX</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NOAH</t>
+          <t>KERMAN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D160">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D161">
@@ -3582,21 +3582,21 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>MAMET</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>NOAH</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D162">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3612,11 +3612,11 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -3632,42 +3632,42 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MCAULIFFE</t>
+          <t>MASON</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TERENCE</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>WARREN, ELIZABETH</t>
         </is>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MCFADDEN-LAWSON</t>
+          <t>MCAULIFFE</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MATTIE</t>
+          <t>TERENCE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3676,23 +3676,23 @@
         </is>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MCLARTY</t>
+          <t>MCFADDEN-LAWSON</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MARY ALICE</t>
+          <t>MATTIE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D167">
@@ -3702,17 +3702,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>MCLARTY</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>MARY ALICE</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D168">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D169">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D170">
@@ -3762,12 +3762,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -3792,47 +3792,47 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MUNOZ</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>HENRY</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MURPHY</t>
+          <t>MUNOZ</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D174">
@@ -3852,31 +3852,31 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MYERS</t>
+          <t>MURPHY</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>RYAN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D177">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D178">
@@ -3922,21 +3922,21 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>MYERS</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D180">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D181">
@@ -3982,21 +3982,21 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NICHOLS</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D183">
@@ -4022,17 +4022,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>OBLANDER</t>
+          <t>NICHOLS</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>KRISTIN</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D184">
@@ -4042,17 +4042,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>OBLANDER</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>KRISTIN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D185">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D186">
@@ -4092,11 +4092,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4112,11 +4112,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -4132,31 +4132,31 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PARHAM</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D191">
@@ -4182,21 +4182,21 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PARKER</t>
+          <t>PARHAM</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>COOKIE</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>YOLANDA</t>
+          <t>COOKIE</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4222,12 +4222,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PATTERSON</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CARY</t>
+          <t>YOLANDA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4236,18 +4236,18 @@
         </is>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PAUL</t>
+          <t>PATTERSON</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>GARY</t>
+          <t>CARY</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4256,18 +4256,18 @@
         </is>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>PAUL</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>GARY</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4292,11 +4292,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D199">
@@ -4342,17 +4342,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PHILLIPS</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D200">
@@ -4372,47 +4372,47 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PIERCE</t>
+          <t>PHILLIPS</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>WENDELL</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>POHLAD</t>
+          <t>PIERCE</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>WENDELL</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D203">
@@ -4422,12 +4422,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RAJI</t>
+          <t>POHLAD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AZITA</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4442,12 +4442,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RANDLETT</t>
+          <t>RAJI</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>WADE</t>
+          <t>AZITA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D206">
@@ -4482,61 +4482,61 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>REEVES</t>
+          <t>RANDLETT</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BEVERLY</t>
+          <t>WADE</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RICKETTS</t>
+          <t>REEVES</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>LAURA</t>
+          <t>BEVERLY</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>RICKETTS</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>LAURA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DE BLASIO, BILL</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D210">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>DE BLASIO, BILL</t>
         </is>
       </c>
       <c r="D211">
@@ -4592,27 +4592,27 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RUEFF</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RUSTY</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D213">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D214">
@@ -4642,17 +4642,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RUSSELL</t>
+          <t>RUEFF</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MARGARET</t>
+          <t>RUSTY</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D215">
@@ -4662,21 +4662,21 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>RUSSELL</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>MARGARET</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D217">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D218">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>INSLEE, JAY R.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D219">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>INSLEE, JAY R.</t>
         </is>
       </c>
       <c r="D220">
@@ -4762,37 +4762,37 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SACKS</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>WARREN, ELIZABETH</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SATAWAKE</t>
+          <t>SACKS</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D222">
@@ -4812,22 +4812,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SCHUSTER</t>
+          <t>SATAWAKE</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ELAINE</t>
+          <t>BOB</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4836,63 +4836,63 @@
         </is>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SEPULVEDA</t>
+          <t>SCHUSTER</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>EUGENE</t>
+          <t>ELAINE</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>CASTRO, JULIAN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SHERMAN</t>
+          <t>SEPULVEDA</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>EUGENE</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>CASTRO, JULIAN</t>
         </is>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SINGH</t>
+          <t>SHERMAN</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AMY</t>
+          <t>BOB</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D227">
@@ -4902,21 +4902,21 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>SINGH</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>AMY</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -4932,11 +4932,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D229">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D230">
@@ -4962,21 +4962,21 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D232">
@@ -5012,11 +5012,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D234">
@@ -5042,17 +5042,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D235">
@@ -5072,11 +5072,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D237">
@@ -5112,11 +5112,11 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5132,51 +5132,51 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SOLOW</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SOLOW</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D242">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D243">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D244">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D245">
@@ -5262,17 +5262,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>STEIN</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>BOBBY</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D246">
@@ -5282,12 +5282,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>STETSON</t>
+          <t>STEIN</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>BILL</t>
+          <t>BOBBY</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D248">
@@ -5332,11 +5332,11 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D250">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D251">
@@ -5382,12 +5382,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SUSMAN</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SALLY</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5396,23 +5396,23 @@
         </is>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TANNER</t>
+          <t>SUSMAN</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>JUSTIN</t>
+          <t>SALLY</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D253">
@@ -5422,12 +5422,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>TSUNIS</t>
+          <t>TANNER</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>GEORGE</t>
+          <t>JUSTIN</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>DE BLASIO, BILL</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D255">
@@ -5462,57 +5462,57 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>WEINSTEIN</t>
+          <t>TSUNIS</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ANDREW</t>
+          <t>GEORGE</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>DE BLASIO, BILL</t>
         </is>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>WESNER</t>
+          <t>WEINSTEIN</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ALEXA</t>
+          <t>ANDREW</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>WESTLY</t>
+          <t>WESNER</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>STEVE</t>
+          <t>ALEXA</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D258">
@@ -5522,12 +5522,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>WHEELER</t>
+          <t>WESTLY</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>STEVE</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5542,17 +5542,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>WHITE</t>
+          <t>WHEELER</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRANK</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D260">
@@ -5562,21 +5562,21 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>WILBOURN</t>
+          <t>WHITE</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>MACK</t>
+          <t>FRANK</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -5592,11 +5592,11 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -5612,31 +5612,31 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>WINTOUR</t>
+          <t>WILBOURN</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>MACK</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -5652,11 +5652,11 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -5672,27 +5672,27 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>WINTOUR</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>ANNA</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D267">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D268">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D269">
@@ -5752,10 +5752,30 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
+          <t>KLOBUCHAR, AMY J.</t>
+        </is>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>WOLF</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
           <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
-      <c r="D270">
+      <c r="D271">
         <v>4</v>
       </c>
     </row>
